--- a/docs/odh/shr-core-ReferralRequest.xlsx
+++ b/docs/odh/shr-core-ReferralRequest.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$41</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="288">
   <si>
     <t>Path</t>
   </si>
@@ -204,7 +204,517 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t>ReferralRequest.meta.id</t>
+    <t>ReferralRequest.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. 
+This element is labelled as a modifier because the implicit rules may provide additional knowledge about the resource that modifies it's meaning or interpretation.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>ReferralRequest.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>ReferralRequest.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded in formation is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dom-1
+</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>ReferralRequest.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>ReferralRequest.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>reasonreference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReasonReference-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The justification, as reference to a condition or observation.</t>
+  </si>
+  <si>
+    <t>communicationmethod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-CommunicationMethod-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>This is the method the provider used to communicate. Examples include: Written, Telephoned, Verbal, Electronically Entered, Policy, Service Correction, Duplicate, etc. 'Code indicating the origin of the prescription.' - NCPDP Telecommunication (Field 419-DJ, Data Dictionary 201104). Possible values include: Written; Telephone; Electronic; Facsimile; Pharmacy; Not Known.</t>
+  </si>
+  <si>
+    <t>referralrecipient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReferralRecipient-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The practitioner or organization receiving the referral.</t>
+  </si>
+  <si>
+    <t>ReferralRequest.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>ReferralRequest.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Business identifier</t>
+  </si>
+  <si>
+    <t>Business identifier that uniquely identifies the referral/care transfer request instance.</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>RF1-6 / RF1-11</t>
+  </si>
+  <si>
+    <t>ReferralRequest.definition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/ActivityDefinition], CanonicalType[http://hl7.org/fhir/StructureDefinition/PlanDefinition]]}
+</t>
+  </si>
+  <si>
+    <t>Instantiates protocol or definition</t>
+  </si>
+  <si>
+    <t>A protocol, guideline, orderset or other definition that is adhered to in whole or in part by this request.</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=DEFN].target</t>
+  </si>
+  <si>
+    <t>ReferralRequest.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fulfills
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/ReferralRequest], CanonicalType[http://hl7.org/fhir/StructureDefinition/CarePlan], CanonicalType[http://hl7.org/fhir/StructureDefinition/ProcedureRequest]]}
+</t>
+  </si>
+  <si>
+    <t>Request fulfilled by this request</t>
+  </si>
+  <si>
+    <t>Indicates any plans, proposals or orders that this request is intended to satisfy - in whole or in part.</t>
+  </si>
+  <si>
+    <t>ReferralRequest.replaces</t>
+  </si>
+  <si>
+    <t>supersedes
+priorrenewed order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReferralRequest]]}
+</t>
+  </si>
+  <si>
+    <t>Request(s) replaced by this request</t>
+  </si>
+  <si>
+    <t>Completed or terminated request(s) whose function is taken by this new request.</t>
+  </si>
+  <si>
+    <t>The replacement could be because the initial request was immediately rejected (due to an issue) or because the previous request was completed, but the need for the action described by the request remains ongoing.</t>
+  </si>
+  <si>
+    <t>Allows tracing the continuation of a therapy or administrative process instantiated through multiple requests.</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=RPLC].target</t>
+  </si>
+  <si>
+    <t>ReferralRequest.groupIdentifier</t>
+  </si>
+  <si>
+    <t>grouperId
+requisition</t>
+  </si>
+  <si>
+    <t>Composite request this is part of</t>
+  </si>
+  <si>
+    <t>The business identifier of the logical "grouping" request/order that this referral is a part of.</t>
+  </si>
+  <si>
+    <t>Allows multiple orders to be collected as part of a single requisition.</t>
+  </si>
+  <si>
+    <t>ReferralRequest.status</t>
+  </si>
+  <si>
+    <t>draft | active | suspended | cancelled | completed | entered-in-error | unknown</t>
+  </si>
+  <si>
+    <t>The status of the authorization/intention reflected by the referral request record.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+  </si>
+  <si>
+    <t>Workflow status is handled by the Task resource.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The status of the referral.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-status</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>RF1-1</t>
+  </si>
+  <si>
+    <t>ReferralRequest.intent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">category
+</t>
+  </si>
+  <si>
+    <t>proposal | plan | order</t>
+  </si>
+  <si>
+    <t>Distinguishes the "level" of authorization/demand implicit in this request.</t>
+  </si>
+  <si>
+    <t>The same resource structure is used when capturing proposals/recommendations, plans and actual requests.</t>
+  </si>
+  <si>
+    <t>Codes identifying the stage lifecycle stage of a request</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-intent</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>ReferralRequest.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Referral/Transition of care request type</t>
+  </si>
+  <si>
+    <t>An indication of the type of referral (or where applicable the type of transfer of care) request.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes for types of referral; e.g. consult, transfer, temporary transfer.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/referral-type</t>
+  </si>
+  <si>
+    <t>RF1-10</t>
+  </si>
+  <si>
+    <t>ReferralRequest.priority</t>
+  </si>
+  <si>
+    <t>Urgency of referral / transfer of care request</t>
+  </si>
+  <si>
+    <t>An indication of the urgency of referral (or where applicable the type of transfer of care) request.</t>
+  </si>
+  <si>
+    <t>Codes indicating the relative priority of the referral.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-priority</t>
+  </si>
+  <si>
+    <t>grade</t>
+  </si>
+  <si>
+    <t>RF1-2</t>
+  </si>
+  <si>
+    <t>ReferralRequest.serviceRequested</t>
+  </si>
+  <si>
+    <t>Actions requested as part of the referral</t>
+  </si>
+  <si>
+    <t>The service(s) that is/are requested to be provided to the patient.  For example: cardiac pacemaker insertion.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/service-type</t>
+  </si>
+  <si>
+    <t>what</t>
+  </si>
+  <si>
+    <t>PR1-3 / OBR-4</t>
+  </si>
+  <si>
+    <t>ReferralRequest.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Group]]}
+</t>
+  </si>
+  <si>
+    <t>Patient referred to care or transfer</t>
+  </si>
+  <si>
+    <t>The patient who is the subject of a referral or transfer of care request.</t>
+  </si>
+  <si>
+    <t>Referral of family, group or community is to be catered for by profiles.</t>
+  </si>
+  <si>
+    <t>who.focus</t>
+  </si>
+  <si>
+    <t>PID-3</t>
+  </si>
+  <si>
+    <t>ReferralRequest.context</t>
+  </si>
+  <si>
+    <t xml:space="preserve">encounter
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Encounter], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-EpisodeOfCare]]}
+</t>
+  </si>
+  <si>
+    <t>Originating encounter</t>
+  </si>
+  <si>
+    <t>The encounter at which the request for referral or transfer of care is initiated.</t>
+  </si>
+  <si>
+    <t>context</t>
+  </si>
+  <si>
+    <t>PV1-19</t>
+  </si>
+  <si>
+    <t>ReferralRequest.occurrence[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">timing
+</t>
+  </si>
+  <si>
+    <t>dateTime {[]} {[]}
+Period {[]} {[]}</t>
+  </si>
+  <si>
+    <t>When the service(s) requested in the referral should occur</t>
+  </si>
+  <si>
+    <t>The period of time within which the services identified in the referral/transfer of care is specified or required to occur.</t>
+  </si>
+  <si>
+    <t>When the occurrenceDateTime is used, then it is indicating that the requested service must happen before the specified date.</t>
+  </si>
+  <si>
+    <t>Use cases: (1) to indicate that the requested service is not to happen before a specified date, and saving the start date in Period.start; (2) to indicate that the requested service must happen before a specified date, and saving the end date in Period.end; (3) to indicate that the requested service must happen during the specified dates ("start" and "end" values).</t>
+  </si>
+  <si>
+    <t>when.planned</t>
+  </si>
+  <si>
+    <t>OBR-7/OBR-8</t>
+  </si>
+  <si>
+    <t>ReferralRequest.authoredOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">createdOn
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Date of creation/activation</t>
+  </si>
+  <si>
+    <t>Date/DateTime of creation for draft requests and date of activation for active requests.</t>
+  </si>
+  <si>
+    <t>when.recorded</t>
+  </si>
+  <si>
+    <t>RF1-7 / RF1-9?</t>
+  </si>
+  <si>
+    <t>ReferralRequest.requester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">author
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Who/what is requesting service</t>
+  </si>
+  <si>
+    <t>The individual who initiated the request and has responsibility for its activation.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+rfr-1:onBehalfOf can only be specified if agent is practitioner or device {(agent.resolve() is Device) or (agent.resolve() is Practitioner) or onBehalfOf.exists().not()}</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=AUT].role</t>
+  </si>
+  <si>
+    <t>ReferralRequest.requester.id</t>
   </si>
   <si>
     <t xml:space="preserve">string {[]} {[]}
@@ -223,612 +733,13 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>ReferralRequest.meta.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Additional Content defined by implementations</t>
+    <t>ReferralRequest.requester.extension</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ReferralRequest.meta.versionId</t>
-  </si>
-  <si>
-    <t>Version specific identifier</t>
-  </si>
-  <si>
-    <t>The version specific identifier, as it appears in the version portion of the URL. This values changes when the resource is created, updated, or deleted.</t>
-  </si>
-  <si>
-    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
-  </si>
-  <si>
-    <t>ReferralRequest.meta.lastUpdated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>When the resource version last changed</t>
-  </si>
-  <si>
-    <t>When the resource last changed - e.g. when the version changed.</t>
-  </si>
-  <si>
-    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant.</t>
-  </si>
-  <si>
-    <t>ReferralRequest.meta.profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Profiles this resource claims to conform to</t>
-  </si>
-  <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url]().</t>
-  </si>
-  <si>
-    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
-  </si>
-  <si>
-    <t>ReferralRequest.meta.security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Security Labels applied to this resource</t>
-  </si>
-  <si>
-    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
-  </si>
-  <si>
-    <t>The security labels can be updated without changing the stated version of the resource  The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
-  </si>
-  <si>
-    <t>ReferralRequest.meta.tag</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
-  </si>
-  <si>
-    <t>The tags can be updated without changing the stated version of the resource.  The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones"</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
-  </si>
-  <si>
-    <t>ReferralRequest.implicitRules</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. 
-This element is labelled as a modifier because the implicit rules may provide additional knowledge about the resource that modifies it's meaning or interpretation.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>ReferralRequest.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>ReferralRequest.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded in formation is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dom-1
-</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>ReferralRequest.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>ReferralRequest.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>reasonreference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReasonReference-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>The justification, as reference to a condition or observation.</t>
-  </si>
-  <si>
-    <t>communicationmethod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-CommunicationMethod-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>This is the method the provider used to communicate. Examples include: Written, Telephoned, Verbal, Electronically Entered, Policy, Service Correction, Duplicate, etc. 'Code indicating the origin of the prescription.' - NCPDP Telecommunication (Field 419-DJ, Data Dictionary 201104). Possible values include: Written; Telephone; Electronic; Facsimile; Pharmacy; Not Known.</t>
-  </si>
-  <si>
-    <t>referralrecipient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReferralRecipient-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>The practitioner or organization receiving the referral.</t>
-  </si>
-  <si>
-    <t>ReferralRequest.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>ReferralRequest.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Business identifier</t>
-  </si>
-  <si>
-    <t>Business identifier that uniquely identifies the referral/care transfer request instance.</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>RF1-6 / RF1-11</t>
-  </si>
-  <si>
-    <t>ReferralRequest.definition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/ActivityDefinition], CanonicalType[http://hl7.org/fhir/StructureDefinition/PlanDefinition]]}
-</t>
-  </si>
-  <si>
-    <t>Instantiates protocol or definition</t>
-  </si>
-  <si>
-    <t>A protocol, guideline, orderset or other definition that is adhered to in whole or in part by this request.</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=DEFN].target</t>
-  </si>
-  <si>
-    <t>ReferralRequest.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fulfills
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/ReferralRequest], CanonicalType[http://hl7.org/fhir/StructureDefinition/CarePlan], CanonicalType[http://hl7.org/fhir/StructureDefinition/ProcedureRequest]]}
-</t>
-  </si>
-  <si>
-    <t>Request fulfilled by this request</t>
-  </si>
-  <si>
-    <t>Indicates any plans, proposals or orders that this request is intended to satisfy - in whole or in part.</t>
-  </si>
-  <si>
-    <t>ReferralRequest.replaces</t>
-  </si>
-  <si>
-    <t>supersedes
-priorrenewed order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReferralRequest]]}
-</t>
-  </si>
-  <si>
-    <t>Request(s) replaced by this request</t>
-  </si>
-  <si>
-    <t>Completed or terminated request(s) whose function is taken by this new request.</t>
-  </si>
-  <si>
-    <t>The replacement could be because the initial request was immediately rejected (due to an issue) or because the previous request was completed, but the need for the action described by the request remains ongoing.</t>
-  </si>
-  <si>
-    <t>Allows tracing the continuation of a therapy or administrative process instantiated through multiple requests.</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=RPLC].target</t>
-  </si>
-  <si>
-    <t>ReferralRequest.groupIdentifier</t>
-  </si>
-  <si>
-    <t>grouperId
-requisition</t>
-  </si>
-  <si>
-    <t>Composite request this is part of</t>
-  </si>
-  <si>
-    <t>The business identifier of the logical "grouping" request/order that this referral is a part of.</t>
-  </si>
-  <si>
-    <t>Allows multiple orders to be collected as part of a single requisition.</t>
-  </si>
-  <si>
-    <t>ReferralRequest.status</t>
-  </si>
-  <si>
-    <t>draft | active | suspended | cancelled | completed | entered-in-error | unknown</t>
-  </si>
-  <si>
-    <t>The status of the authorization/intention reflected by the referral request record.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>Workflow status is handled by the Task resource.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The status of the referral.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-status</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>RF1-1</t>
-  </si>
-  <si>
-    <t>ReferralRequest.intent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">category
-</t>
-  </si>
-  <si>
-    <t>proposal | plan | order</t>
-  </si>
-  <si>
-    <t>Distinguishes the "level" of authorization/demand implicit in this request.</t>
-  </si>
-  <si>
-    <t>The same resource structure is used when capturing proposals/recommendations, plans and actual requests.</t>
-  </si>
-  <si>
-    <t>Codes identifying the stage lifecycle stage of a request</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-intent</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>ReferralRequest.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Referral/Transition of care request type</t>
-  </si>
-  <si>
-    <t>An indication of the type of referral (or where applicable the type of transfer of care) request.</t>
-  </si>
-  <si>
-    <t>Codes for types of referral; e.g. consult, transfer, temporary transfer.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/referral-type</t>
-  </si>
-  <si>
-    <t>RF1-10</t>
-  </si>
-  <si>
-    <t>ReferralRequest.priority</t>
-  </si>
-  <si>
-    <t>Urgency of referral / transfer of care request</t>
-  </si>
-  <si>
-    <t>An indication of the urgency of referral (or where applicable the type of transfer of care) request.</t>
-  </si>
-  <si>
-    <t>Codes indicating the relative priority of the referral.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-priority</t>
-  </si>
-  <si>
-    <t>grade</t>
-  </si>
-  <si>
-    <t>RF1-2</t>
-  </si>
-  <si>
-    <t>ReferralRequest.serviceRequested</t>
-  </si>
-  <si>
-    <t>Actions requested as part of the referral</t>
-  </si>
-  <si>
-    <t>The service(s) that is/are requested to be provided to the patient.  For example: cardiac pacemaker insertion.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/service-type</t>
-  </si>
-  <si>
-    <t>what</t>
-  </si>
-  <si>
-    <t>PR1-3 / OBR-4</t>
-  </si>
-  <si>
-    <t>ReferralRequest.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Group]]}
-</t>
-  </si>
-  <si>
-    <t>Patient referred to care or transfer</t>
-  </si>
-  <si>
-    <t>The patient who is the subject of a referral or transfer of care request.</t>
-  </si>
-  <si>
-    <t>Referral of family, group or community is to be catered for by profiles.</t>
-  </si>
-  <si>
-    <t>who.focus</t>
-  </si>
-  <si>
-    <t>PID-3</t>
-  </si>
-  <si>
-    <t>ReferralRequest.context</t>
-  </si>
-  <si>
-    <t xml:space="preserve">encounter
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Encounter], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-EpisodeOfCare]]}
-</t>
-  </si>
-  <si>
-    <t>Originating encounter</t>
-  </si>
-  <si>
-    <t>The encounter at which the request for referral or transfer of care is initiated.</t>
-  </si>
-  <si>
-    <t>context</t>
-  </si>
-  <si>
-    <t>PV1-19</t>
-  </si>
-  <si>
-    <t>ReferralRequest.occurrence[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">timing
-</t>
-  </si>
-  <si>
-    <t>dateTime {[]} {[]}
-Period {[]} {[]}</t>
-  </si>
-  <si>
-    <t>When the service(s) requested in the referral should occur</t>
-  </si>
-  <si>
-    <t>The period of time within which the services identified in the referral/transfer of care is specified or required to occur.</t>
-  </si>
-  <si>
-    <t>When the occurrenceDateTime is used, then it is indicating that the requested service must happen before the specified date.</t>
-  </si>
-  <si>
-    <t>Use cases: (1) to indicate that the requested service is not to happen before a specified date, and saving the start date in Period.start; (2) to indicate that the requested service must happen before a specified date, and saving the end date in Period.end; (3) to indicate that the requested service must happen during the specified dates ("start" and "end" values).</t>
-  </si>
-  <si>
-    <t>when.planned</t>
-  </si>
-  <si>
-    <t>OBR-7/OBR-8</t>
-  </si>
-  <si>
-    <t>ReferralRequest.authoredOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">createdOn
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Date of creation/activation</t>
-  </si>
-  <si>
-    <t>Date/DateTime of creation for draft requests and date of activation for active requests.</t>
-  </si>
-  <si>
-    <t>when.recorded</t>
-  </si>
-  <si>
-    <t>RF1-7 / RF1-9?</t>
-  </si>
-  <si>
-    <t>ReferralRequest.requester</t>
-  </si>
-  <si>
-    <t xml:space="preserve">author
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Who/what is requesting service</t>
-  </si>
-  <si>
-    <t>The individual who initiated the request and has responsibility for its activation.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-rfr-1:onBehalfOf can only be specified if agent is practitioner or device {(agent.resolve() is Device) or (agent.resolve() is Practitioner) or onBehalfOf.exists().not()}</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=AUT].role</t>
-  </si>
-  <si>
-    <t>ReferralRequest.requester.id</t>
-  </si>
-  <si>
-    <t>ReferralRequest.requester.extension</t>
   </si>
   <si>
     <t>ReferralRequest.requester.modifierExtension</t>
@@ -1164,7 +1075,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM48"/>
+  <dimension ref="A1:AM41"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1196,11 +1107,11 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.21875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="74.953125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="46.03125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1664,10 +1575,10 @@
         <v>42</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J5" t="s" s="2">
         <v>62</v>
@@ -1678,7 +1589,9 @@
       <c r="L5" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="M5" s="2"/>
+      <c r="M5" t="s" s="2">
+        <v>65</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>42</v>
@@ -1727,7 +1640,7 @@
         <v>42</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>40</v>
@@ -1748,7 +1661,7 @@
         <v>42</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" hidden="true">
@@ -1757,14 +1670,14 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>42</v>
@@ -1776,16 +1689,16 @@
         <v>42</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>71</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>72</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -1811,37 +1724,37 @@
         <v>42</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="AC6" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD6" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AE6" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>42</v>
@@ -1856,16 +1769,16 @@
         <v>42</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -1881,19 +1794,19 @@
         <v>42</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -1942,13 +1855,17 @@
       <c r="AD7" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE7" s="2"/>
+      <c r="AE7" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AF7" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG7" s="2"/>
+      <c r="AG7" t="s" s="2">
+        <v>49</v>
+      </c>
       <c r="AH7" t="s" s="2">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>42</v>
@@ -1960,23 +1877,23 @@
         <v>42</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>42</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>42</v>
@@ -1985,19 +1902,19 @@
         <v>42</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2046,11 +1963,15 @@
       <c r="AD8" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE8" s="2"/>
+      <c r="AE8" t="s" s="2">
+        <v>91</v>
+      </c>
       <c r="AF8" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG8" s="2"/>
+      <c r="AG8" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH8" t="s" s="2">
         <v>42</v>
       </c>
@@ -2064,16 +1985,16 @@
         <v>42</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>42</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2089,19 +2010,19 @@
         <v>42</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2139,22 +2060,24 @@
         <v>42</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE9" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="AF9" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG9" s="2"/>
+      <c r="AG9" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH9" t="s" s="2">
         <v>42</v>
       </c>
@@ -2168,14 +2091,16 @@
         <v>42</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>42</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="B10" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="C10" t="s" s="2">
         <v>42</v>
       </c>
@@ -2193,20 +2118,16 @@
         <v>42</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K10" t="s" s="2">
-        <v>93</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="K10" s="2"/>
       <c r="L10" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>95</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>42</v>
@@ -2231,13 +2152,13 @@
         <v>42</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="Z10" t="s" s="2">
         <v>42</v>
@@ -2254,11 +2175,15 @@
       <c r="AD10" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE10" s="2"/>
+      <c r="AE10" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="AF10" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG10" s="2"/>
+      <c r="AG10" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH10" t="s" s="2">
         <v>42</v>
       </c>
@@ -2277,9 +2202,11 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="B11" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="C11" t="s" s="2">
         <v>42</v>
       </c>
@@ -2288,7 +2215,7 @@
         <v>40</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>42</v>
@@ -2297,20 +2224,16 @@
         <v>42</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="K11" s="2"/>
       <c r="L11" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>42</v>
@@ -2335,13 +2258,13 @@
         <v>42</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>42</v>
@@ -2358,11 +2281,15 @@
       <c r="AD11" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE11" s="2"/>
+      <c r="AE11" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="AF11" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG11" s="2"/>
+      <c r="AG11" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH11" t="s" s="2">
         <v>42</v>
       </c>
@@ -2381,9 +2308,11 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="B12" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="C12" t="s" s="2">
         <v>42</v>
       </c>
@@ -2392,29 +2321,25 @@
         <v>40</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K12" t="s" s="2">
-        <v>107</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="K12" s="2"/>
       <c r="L12" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>42</v>
@@ -2463,13 +2388,13 @@
         <v>42</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>42</v>
@@ -2493,35 +2418,35 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="L13" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="M13" t="s" s="2">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2547,13 +2472,13 @@
         <v>42</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>42</v>
@@ -2571,13 +2496,13 @@
         <v>42</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>42</v>
@@ -2592,23 +2517,23 @@
         <v>42</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>42</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>42</v>
@@ -2617,20 +2542,18 @@
         <v>42</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>124</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>42</v>
@@ -2678,38 +2601,34 @@
       <c r="AD14" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE14" t="s" s="2">
-        <v>125</v>
-      </c>
+      <c r="AE14" s="2"/>
       <c r="AF14" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG14" t="s" s="2">
-        <v>49</v>
-      </c>
+      <c r="AG14" s="2"/>
       <c r="AH14" t="s" s="2">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>127</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>129</v>
+        <v>42</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -2725,20 +2644,18 @@
         <v>42</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>42</v>
@@ -2786,15 +2703,11 @@
       <c r="AD15" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE15" t="s" s="2">
-        <v>134</v>
-      </c>
+      <c r="AE15" s="2"/>
       <c r="AF15" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG15" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG15" s="2"/>
       <c r="AH15" t="s" s="2">
         <v>42</v>
       </c>
@@ -2808,16 +2721,16 @@
         <v>42</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -2833,20 +2746,18 @@
         <v>42</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>69</v>
+        <v>128</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>70</v>
+        <v>129</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>42</v>
@@ -2883,24 +2794,22 @@
         <v>42</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB16" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AC16" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="AE16" s="2"/>
       <c r="AF16" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG16" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG16" s="2"/>
       <c r="AH16" t="s" s="2">
         <v>42</v>
       </c>
@@ -2914,18 +2823,16 @@
         <v>42</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>135</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -2941,17 +2848,23 @@
         <v>42</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="K17" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="L17" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O17" t="s" s="2">
         <v>42</v>
       </c>
@@ -2998,40 +2911,34 @@
       <c r="AD17" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE17" t="s" s="2">
+      <c r="AE17" s="2"/>
+      <c r="AF17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG17" s="2"/>
+      <c r="AH17" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>42</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>42</v>
+        <v>140</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3047,17 +2954,21 @@
         <v>42</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="K18" s="2"/>
-      <c r="L18" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>42</v>
       </c>
@@ -3104,15 +3015,11 @@
       <c r="AD18" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE18" t="s" s="2">
-        <v>138</v>
-      </c>
+      <c r="AE18" s="2"/>
       <c r="AF18" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG18" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG18" s="2"/>
       <c r="AH18" t="s" s="2">
         <v>42</v>
       </c>
@@ -3131,39 +3038,43 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="K19" s="2"/>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
+      <c r="N19" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>42</v>
       </c>
@@ -3187,13 +3098,13 @@
         <v>42</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>42</v>
+        <v>151</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>42</v>
@@ -3210,15 +3121,11 @@
       <c r="AD19" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE19" t="s" s="2">
-        <v>138</v>
-      </c>
+      <c r="AE19" s="2"/>
       <c r="AF19" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG19" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG19" s="2"/>
       <c r="AH19" t="s" s="2">
         <v>42</v>
       </c>
@@ -3226,10 +3133,10 @@
         <v>42</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>42</v>
+        <v>152</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>42</v>
+        <v>153</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>42</v>
@@ -3237,18 +3144,18 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>68</v>
+        <v>155</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>42</v>
@@ -3257,21 +3164,21 @@
         <v>50</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="O20" t="s" s="2">
         <v>42</v>
       </c>
@@ -3295,13 +3202,13 @@
         <v>42</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>42</v>
+        <v>159</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>42</v>
@@ -3318,15 +3225,11 @@
       <c r="AD20" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE20" t="s" s="2">
-        <v>151</v>
-      </c>
+      <c r="AE20" s="2"/>
       <c r="AF20" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG20" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG20" s="2"/>
       <c r="AH20" t="s" s="2">
         <v>42</v>
       </c>
@@ -3334,18 +3237,18 @@
         <v>42</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>42</v>
+        <v>161</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>135</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3356,7 +3259,7 @@
         <v>40</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>42</v>
@@ -3368,13 +3271,13 @@
         <v>50</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3401,13 +3304,13 @@
         <v>42</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>42</v>
+        <v>166</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>42</v>
+        <v>167</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>42</v>
+        <v>168</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>42</v>
@@ -3436,10 +3339,10 @@
         <v>42</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>42</v>
@@ -3447,7 +3350,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3458,7 +3361,7 @@
         <v>40</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>42</v>
@@ -3470,13 +3373,13 @@
         <v>50</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>159</v>
+        <v>68</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3503,13 +3406,13 @@
         <v>42</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>42</v>
+        <v>173</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>42</v>
+        <v>174</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>42</v>
@@ -3538,22 +3441,22 @@
         <v>42</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>42</v>
+        <v>175</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>42</v>
+        <v>176</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>162</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>164</v>
+        <v>42</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3572,13 +3475,13 @@
         <v>50</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3605,13 +3508,11 @@
         <v>42</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="X23" s="2"/>
       <c r="Y23" t="s" s="2">
-        <v>42</v>
+        <v>180</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>42</v>
@@ -3640,10 +3541,10 @@
         <v>42</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>42</v>
+        <v>181</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>42</v>
+        <v>182</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>42</v>
@@ -3651,18 +3552,18 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>169</v>
+        <v>42</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>42</v>
@@ -3674,20 +3575,18 @@
         <v>50</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>42</v>
       </c>
@@ -3734,11 +3633,15 @@
       <c r="AD24" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE24" s="2"/>
+      <c r="AE24" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="AF24" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG24" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>49</v>
+      </c>
       <c r="AH24" t="s" s="2">
         <v>42</v>
       </c>
@@ -3746,22 +3649,22 @@
         <v>42</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>42</v>
+        <v>188</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>42</v>
+        <v>189</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>175</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -3780,18 +3683,16 @@
         <v>50</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>153</v>
+        <v>192</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="M25" s="2"/>
-      <c r="N25" t="s" s="2">
-        <v>180</v>
-      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>42</v>
       </c>
@@ -3850,10 +3751,10 @@
         <v>42</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>42</v>
+        <v>195</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>42</v>
+        <v>196</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>42</v>
@@ -3861,15 +3762,15 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>42</v>
+        <v>198</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>49</v>
@@ -3878,25 +3779,25 @@
         <v>42</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>112</v>
+        <v>199</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>42</v>
@@ -3921,13 +3822,13 @@
         <v>42</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>186</v>
+        <v>42</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>187</v>
+        <v>42</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>188</v>
+        <v>42</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>42</v>
@@ -3956,10 +3857,10 @@
         <v>42</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>42</v>
@@ -3967,15 +3868,15 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>49</v>
@@ -3984,24 +3885,22 @@
         <v>42</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>112</v>
+        <v>208</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="M27" s="2"/>
-      <c r="N27" t="s" s="2">
-        <v>195</v>
-      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>42</v>
       </c>
@@ -4025,13 +3924,13 @@
         <v>42</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>186</v>
+        <v>42</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>196</v>
+        <v>42</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>197</v>
+        <v>42</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>42</v>
@@ -4060,10 +3959,10 @@
         <v>42</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>42</v>
+        <v>212</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>42</v>
@@ -4071,11 +3970,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>42</v>
+        <v>214</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4094,13 +3993,13 @@
         <v>50</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4127,13 +4026,13 @@
         <v>42</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>203</v>
+        <v>42</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>204</v>
+        <v>42</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>42</v>
@@ -4159,21 +4058,21 @@
         <v>42</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>42</v>
+        <v>218</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>198</v>
+        <v>42</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>205</v>
+        <v>42</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>42</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4193,16 +4092,16 @@
         <v>42</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>112</v>
+        <v>221</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4229,13 +4128,13 @@
         <v>42</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>186</v>
+        <v>42</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>209</v>
+        <v>42</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>210</v>
+        <v>42</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>42</v>
@@ -4252,11 +4151,15 @@
       <c r="AD29" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE29" s="2"/>
+      <c r="AE29" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="AF29" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG29" s="2"/>
+      <c r="AG29" t="s" s="2">
+        <v>49</v>
+      </c>
       <c r="AH29" t="s" s="2">
         <v>42</v>
       </c>
@@ -4264,22 +4167,22 @@
         <v>42</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>211</v>
+        <v>42</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>212</v>
+        <v>42</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>42</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4295,18 +4198,20 @@
         <v>42</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>214</v>
+        <v>96</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>42</v>
@@ -4331,11 +4236,13 @@
         <v>42</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="X30" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y30" t="s" s="2">
-        <v>216</v>
+        <v>42</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>42</v>
@@ -4352,11 +4259,15 @@
       <c r="AD30" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE30" s="2"/>
+      <c r="AE30" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="AF30" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG30" s="2"/>
+      <c r="AG30" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH30" t="s" s="2">
         <v>42</v>
       </c>
@@ -4364,50 +4275,50 @@
         <v>42</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>217</v>
+        <v>42</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>218</v>
+        <v>42</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>42</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>42</v>
+        <v>230</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>220</v>
+        <v>95</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>221</v>
+        <v>112</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>223</v>
+        <v>98</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4457,13 +4368,13 @@
         <v>42</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>42</v>
@@ -4472,26 +4383,26 @@
         <v>42</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>224</v>
+        <v>42</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>225</v>
+        <v>42</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>42</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>227</v>
+        <v>42</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>49</v>
@@ -4506,13 +4417,13 @@
         <v>50</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4574,22 +4485,22 @@
         <v>42</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>232</v>
+        <v>42</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>42</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>234</v>
+        <v>42</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4608,19 +4519,17 @@
         <v>50</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>42</v>
@@ -4674,28 +4583,28 @@
       </c>
       <c r="AG33" s="2"/>
       <c r="AH33" t="s" s="2">
-        <v>42</v>
+        <v>244</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>240</v>
+        <v>42</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>241</v>
+        <v>42</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>42</v>
+        <v>245</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>243</v>
+        <v>42</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -4711,16 +4620,16 @@
         <v>42</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>244</v>
+        <v>163</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4747,13 +4656,13 @@
         <v>42</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>42</v>
+        <v>166</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>42</v>
+        <v>249</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>42</v>
+        <v>250</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>42</v>
@@ -4782,10 +4691,10 @@
         <v>42</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>247</v>
+        <v>42</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>42</v>
@@ -4793,11 +4702,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>250</v>
+        <v>42</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -4816,15 +4725,17 @@
         <v>50</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>42</v>
@@ -4872,30 +4783,34 @@
       <c r="AD35" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE35" s="2"/>
+      <c r="AE35" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="AF35" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG35" s="2"/>
+      <c r="AG35" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH35" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>254</v>
+        <v>42</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>42</v>
+        <v>257</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>42</v>
+        <v>258</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>255</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4915,16 +4830,16 @@
         <v>42</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>62</v>
+        <v>163</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>63</v>
+        <v>260</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>64</v>
+        <v>261</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -4951,13 +4866,13 @@
         <v>42</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>42</v>
+        <v>166</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>42</v>
+        <v>262</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>42</v>
+        <v>263</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>42</v>
@@ -4975,13 +4890,13 @@
         <v>42</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>65</v>
+        <v>259</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>42</v>
@@ -4990,22 +4905,22 @@
         <v>42</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>42</v>
+        <v>264</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>42</v>
+        <v>169</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5021,20 +4936,18 @@
         <v>42</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>69</v>
+        <v>266</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>70</v>
+        <v>267</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>42</v>
@@ -5082,15 +4995,11 @@
       <c r="AD37" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE37" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="AE37" s="2"/>
       <c r="AF37" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG37" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG37" s="2"/>
       <c r="AH37" t="s" s="2">
         <v>42</v>
       </c>
@@ -5098,51 +5007,49 @@
         <v>42</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>42</v>
+        <v>264</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>66</v>
+        <v>269</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>259</v>
+        <v>42</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>69</v>
+        <v>221</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>149</v>
+        <v>271</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>42</v>
@@ -5190,15 +5097,11 @@
       <c r="AD38" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE38" t="s" s="2">
-        <v>261</v>
-      </c>
+      <c r="AE38" s="2"/>
       <c r="AF38" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG38" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG38" s="2"/>
       <c r="AH38" t="s" s="2">
         <v>42</v>
       </c>
@@ -5212,12 +5115,12 @@
         <v>42</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>135</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5225,10 +5128,10 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>42</v>
@@ -5237,16 +5140,16 @@
         <v>42</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5308,18 +5211,18 @@
         <v>42</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>266</v>
+        <v>42</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>267</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5330,7 +5233,7 @@
         <v>40</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>42</v>
@@ -5339,21 +5242,19 @@
         <v>42</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="M40" s="2"/>
-      <c r="N40" t="s" s="2">
-        <v>272</v>
-      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>42</v>
       </c>
@@ -5406,7 +5307,7 @@
       </c>
       <c r="AG40" s="2"/>
       <c r="AH40" t="s" s="2">
-        <v>273</v>
+        <v>42</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>42</v>
@@ -5418,23 +5319,23 @@
         <v>42</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>274</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>42</v>
+        <v>282</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>42</v>
@@ -5446,15 +5347,17 @@
         <v>42</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>200</v>
+        <v>283</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>42</v>
@@ -5479,13 +5382,13 @@
         <v>42</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>278</v>
+        <v>42</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>279</v>
+        <v>42</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>42</v>
@@ -5517,740 +5420,14 @@
         <v>42</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>280</v>
+        <v>42</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" hidden="true">
-      <c r="A42" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F42" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J42" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P42" s="2"/>
-      <c r="Q42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="AK42" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" hidden="true">
-      <c r="A43" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F43" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J43" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P43" s="2"/>
-      <c r="Q43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" hidden="true">
-      <c r="A44" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P44" s="2"/>
-      <c r="Q44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE44" s="2"/>
-      <c r="AF44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG44" s="2"/>
-      <c r="AH44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="45" hidden="true">
-      <c r="A45" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F45" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P45" s="2"/>
-      <c r="Q45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE45" s="2"/>
-      <c r="AF45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG45" s="2"/>
-      <c r="AH45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" hidden="true">
-      <c r="A46" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="K46" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P46" s="2"/>
-      <c r="Q46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE46" s="2"/>
-      <c r="AF46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG46" s="2"/>
-      <c r="AH46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="47" hidden="true">
-      <c r="A47" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="K47" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P47" s="2"/>
-      <c r="Q47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE47" s="2"/>
-      <c r="AF47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG47" s="2"/>
-      <c r="AH47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="48" hidden="true">
-      <c r="A48" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="K48" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P48" s="2"/>
-      <c r="Q48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE48" s="2"/>
-      <c r="AF48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG48" s="2"/>
-      <c r="AH48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>316</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL48">
+  <autoFilter ref="A1:AL41">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6260,7 +5437,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI47">
+  <conditionalFormatting sqref="A2:AI40">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/odh/shr-core-ReferralRequest.xlsx
+++ b/docs/odh/shr-core-ReferralRequest.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$54</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="326">
   <si>
     <t>Path</t>
   </si>
@@ -338,34 +338,168 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>reasonreference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReasonReference-extension]]} {[]}
+    <t>metadata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Metadata-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>The justification, as reference to a condition or observation.</t>
-  </si>
-  <si>
-    <t>communicationmethod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-CommunicationMethod-extension]]} {[]}
+    <t>Elements that belong to all information items.</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Language-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>This is the method the provider used to communicate. Examples include: Written, Telephoned, Verbal, Electronically Entered, Policy, Service Correction, Duplicate, etc. 'Code indicating the origin of the prescription.' - NCPDP Telecommunication (Field 419-DJ, Data Dictionary 201104). Possible values include: Written; Telephone; Electronic; Facsimile; Pharmacy; Not Known.</t>
-  </si>
-  <si>
-    <t>referralrecipient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReferralRecipient-extension]]} {[]}
+    <t>A human language, spoken or written.</t>
+  </si>
+  <si>
+    <t>implicitrules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-ImplicitRules-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>The practitioner or organization receiving the referral.</t>
+    <t>narrative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Narrative-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>A human-readable narrative, potentially including images, that contains a summary of the resource, and may be used to represent the content of the resource to a human.</t>
+  </si>
+  <si>
+    <t>subjectofrecord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-SubjectOfRecord-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The subject of a clinical statement, often called the Patient or the Subject. The SubjectOfRecord typically identifies the clinical record in which this statement is contained. If the statement should be in John Doe's patient record, then John Doe is the subject of record. When there is no patient, the SubjectOfRecord can also be a location, group, or other entity that statement pertains to. For example, observations concerning a hospital ward would have a Location as the SubjectOfRecord.
+Note that the word 'Subject' is used here in the sense of a person or entity subjected to observations or actions, not subject as in a conceptual topic, like heart disease.</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Category-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The general type or class of this item.</t>
+  </si>
+  <si>
+    <t>donotperform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-DoNotPerform-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>A flag, when set to true, indicates that the service/procedure should NOT be performed.</t>
+  </si>
+  <si>
+    <t>requestquantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-RequestQuantity-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>An amount of service being requested which can be a quantity ( for example $1,500 home modification), a ratio ( for example, 20 half day visits per month), or a range (2.0 to 1.8 Gy per fraction).</t>
+  </si>
+  <si>
+    <t>asneeded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-AsNeeded-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Preconditions for service, either 'true' indicating to be performed if needed, or a code indicating the pre-condition for performing the service. For example 'pain', 'on flare-up', etc.</t>
+  </si>
+  <si>
+    <t>locationtype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-LocationType-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The preferred type of location(s) where the service should happen, in coded or free text form, e.g. at home or nursing day care center.</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Location-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Services and space and equipment provided for a particular purpose; a building or place that provides a particular service or is used for a particular industry. Could be a clinical site, community site, or a mobile facility.</t>
+  </si>
+  <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Insurance-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Insurance plans, coverage extensions, pre-authorizations and/or pre-determinations that may be needed for delivering the requested service.</t>
+  </si>
+  <si>
+    <t>specimen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Specimen-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>A specimen is a substance, physical object, or collection of objects, that the laboratory considers a single discrete, uniquely identified unit that is the subject of one or more steps in the laboratory workflow. A specimen may include multiple physical pieces as long as they are considered a single unit within the laboratory workflow. A specimen results from one to many specimen collection procedures, and may be contained in multiple specimen containers. Specimen may have one or more processing activities.</t>
+  </si>
+  <si>
+    <t>bodylocation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-BodyLocation-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>A location or structure in the body, including tissues, regions, cavities, and spaces; for example, right elbow, or left ventricle of the heart. Body location is a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
++ Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
++ Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
++ Relation to landmark: The location relative to a landmark is specified by:
+- Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
+- Specifying the direction and distance from the landmark to the body location.
+Note that BodyLocation is a data type, a reusable structure, not a stand-alone entity. The concept is similar to how a postal address can apply to a person, location, or organization. This contrasts with FHIR's stand-alone BodySite (aka BodyStructure in r4) which 'is not ... intended for describing the type of anatomical location but rather a specific body site on a specific patient' (FHIR 3.5).</t>
+  </si>
+  <si>
+    <t>patientinstruction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-PatientInstruction-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Patient or consumer-oriented instructions.</t>
+  </si>
+  <si>
+    <t>commentordescription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-CommentOrDescription-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>A text note containing additional details, explanation, description, comment, or summarization.</t>
   </si>
   <si>
     <t>ReferralRequest.modifierExtension</t>
@@ -422,7 +556,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/ReferralRequest], CanonicalType[http://hl7.org/fhir/StructureDefinition/CarePlan], CanonicalType[http://hl7.org/fhir/StructureDefinition/ProcedureRequest]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-ReferralRequest], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-ServiceRequest], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-ProcedureRequest]]}
 </t>
   </si>
   <si>
@@ -439,7 +573,7 @@
 priorrenewed order</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReferralRequest]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-ReferralRequest]]}
 </t>
   </si>
   <si>
@@ -596,7 +730,7 @@
     <t>ReferralRequest.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Group]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Patient], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Group]]}
 </t>
   </si>
   <si>
@@ -622,7 +756,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Encounter], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-EpisodeOfCare]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Encounter]]}
 </t>
   </si>
   <si>
@@ -758,7 +892,7 @@
     <t>ReferralRequest.requester.agent</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Organization], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RelatedPerson], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Device]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Practitioner], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Organization], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Patient], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-RelatedPerson], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Device]]}
 </t>
   </si>
   <si>
@@ -818,7 +952,7 @@
     <t>ReferralRequest.recipient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Organization]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Practitioner], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Organization]]}
 </t>
   </si>
   <si>
@@ -858,7 +992,7 @@
     <t>ReferralRequest.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Condition], CanonicalType[http://hl7.org/fhir/StructureDefinition/Observation]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Condition], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Observation]]}
 </t>
   </si>
   <si>
@@ -883,7 +1017,7 @@
     <t>ReferralRequest.supportingInfo</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-DomainResource]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-DomainResource]]}
 </t>
   </si>
   <si>
@@ -896,7 +1030,7 @@
     <t>ReferralRequest.note</t>
   </si>
   <si>
-    <t xml:space="preserve">Annotation {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Annotation]]} {[]}
+    <t xml:space="preserve">Annotation {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Annotation]]} {[]}
 </t>
   </si>
   <si>
@@ -1075,7 +1209,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM41"/>
+  <dimension ref="A1:AL54"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1085,7 +1219,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="41.625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="22.05859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="21.58203125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -1998,7 +2132,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>41</v>
@@ -2109,7 +2243,7 @@
         <v>40</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>42</v>
@@ -2321,7 +2455,7 @@
         <v>40</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>42</v>
@@ -2337,7 +2471,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" t="s" s="2">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2414,40 +2548,38 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="C13" t="s" s="2">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="K13" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="L13" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>98</v>
-      </c>
+      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>42</v>
@@ -2496,7 +2628,7 @@
         <v>42</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>40</v>
@@ -2517,23 +2649,25 @@
         <v>42</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>92</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="C14" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>42</v>
@@ -2542,16 +2676,14 @@
         <v>42</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="K14" t="s" s="2">
-        <v>117</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="K14" s="2"/>
       <c r="L14" t="s" s="2">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2601,11 +2733,15 @@
       <c r="AD14" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE14" s="2"/>
+      <c r="AE14" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="AF14" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG14" s="2"/>
+      <c r="AG14" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH14" t="s" s="2">
         <v>42</v>
       </c>
@@ -2613,10 +2749,10 @@
         <v>42</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>42</v>
@@ -2624,9 +2760,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="B15" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="C15" t="s" s="2">
         <v>42</v>
       </c>
@@ -2644,16 +2782,14 @@
         <v>42</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="K15" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="K15" s="2"/>
       <c r="L15" t="s" s="2">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2703,11 +2839,15 @@
       <c r="AD15" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE15" s="2"/>
+      <c r="AE15" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="AF15" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG15" s="2"/>
+      <c r="AG15" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH15" t="s" s="2">
         <v>42</v>
       </c>
@@ -2721,23 +2861,25 @@
         <v>42</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>125</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="B16" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="C16" t="s" s="2">
-        <v>127</v>
+        <v>42</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>42</v>
@@ -2746,16 +2888,14 @@
         <v>42</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="K16" t="s" s="2">
-        <v>129</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="K16" s="2"/>
       <c r="L16" t="s" s="2">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2805,11 +2945,15 @@
       <c r="AD16" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE16" s="2"/>
+      <c r="AE16" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="AF16" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG16" s="2"/>
+      <c r="AG16" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH16" t="s" s="2">
         <v>42</v>
       </c>
@@ -2828,18 +2972,20 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="B17" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>122</v>
+      </c>
       <c r="C17" t="s" s="2">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>42</v>
@@ -2848,23 +2994,17 @@
         <v>42</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="K17" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="K17" s="2"/>
       <c r="L17" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>42</v>
       </c>
@@ -2911,11 +3051,15 @@
       <c r="AD17" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE17" s="2"/>
+      <c r="AE17" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="AF17" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG17" s="2"/>
+      <c r="AG17" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH17" t="s" s="2">
         <v>42</v>
       </c>
@@ -2929,16 +3073,18 @@
         <v>42</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>138</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>125</v>
+      </c>
       <c r="C18" t="s" s="2">
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -2954,21 +3100,17 @@
         <v>42</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="K18" s="2"/>
       <c r="L18" t="s" s="2">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="M18" s="2"/>
-      <c r="N18" t="s" s="2">
-        <v>143</v>
-      </c>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>42</v>
       </c>
@@ -3015,11 +3157,15 @@
       <c r="AD18" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE18" s="2"/>
+      <c r="AE18" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="AF18" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG18" s="2"/>
+      <c r="AG18" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH18" t="s" s="2">
         <v>42</v>
       </c>
@@ -3038,43 +3184,39 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="B19" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>128</v>
+      </c>
       <c r="C19" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="K19" s="2"/>
       <c r="L19" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>42</v>
       </c>
@@ -3098,13 +3240,13 @@
         <v>42</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>149</v>
+        <v>42</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>150</v>
+        <v>42</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>151</v>
+        <v>42</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>42</v>
@@ -3121,11 +3263,15 @@
       <c r="AD19" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE19" s="2"/>
+      <c r="AE19" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="AF19" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG19" s="2"/>
+      <c r="AG19" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH19" t="s" s="2">
         <v>42</v>
       </c>
@@ -3133,10 +3279,10 @@
         <v>42</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>152</v>
+        <v>42</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>153</v>
+        <v>42</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>42</v>
@@ -3144,41 +3290,39 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="C20" t="s" s="2">
-        <v>155</v>
+        <v>42</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="K20" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="K20" s="2"/>
       <c r="L20" t="s" s="2">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="M20" s="2"/>
-      <c r="N20" t="s" s="2">
-        <v>158</v>
-      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>42</v>
       </c>
@@ -3202,13 +3346,13 @@
         <v>42</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>149</v>
+        <v>42</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>159</v>
+        <v>42</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>42</v>
@@ -3225,11 +3369,15 @@
       <c r="AD20" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE20" s="2"/>
+      <c r="AE20" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="AF20" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG20" s="2"/>
+      <c r="AG20" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH20" t="s" s="2">
         <v>42</v>
       </c>
@@ -3237,7 +3385,7 @@
         <v>42</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>161</v>
+        <v>42</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>42</v>
@@ -3248,9 +3396,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="C21" t="s" s="2">
         <v>42</v>
       </c>
@@ -3259,7 +3409,7 @@
         <v>40</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>42</v>
@@ -3268,16 +3418,14 @@
         <v>42</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="K21" s="2"/>
       <c r="L21" t="s" s="2">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3304,13 +3452,13 @@
         <v>42</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>166</v>
+        <v>42</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>167</v>
+        <v>42</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>168</v>
+        <v>42</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>42</v>
@@ -3327,11 +3475,15 @@
       <c r="AD21" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE21" s="2"/>
+      <c r="AE21" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="AF21" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG21" s="2"/>
+      <c r="AG21" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH21" t="s" s="2">
         <v>42</v>
       </c>
@@ -3339,10 +3491,10 @@
         <v>42</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>161</v>
+        <v>42</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>169</v>
+        <v>42</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>42</v>
@@ -3350,9 +3502,11 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="B22" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="C22" t="s" s="2">
         <v>42</v>
       </c>
@@ -3361,7 +3515,7 @@
         <v>40</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>42</v>
@@ -3370,16 +3524,14 @@
         <v>42</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="K22" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="K22" s="2"/>
       <c r="L22" t="s" s="2">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3406,13 +3558,13 @@
         <v>42</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>149</v>
+        <v>42</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>173</v>
+        <v>42</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>174</v>
+        <v>42</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>42</v>
@@ -3429,11 +3581,15 @@
       <c r="AD22" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE22" s="2"/>
+      <c r="AE22" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="AF22" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG22" s="2"/>
+      <c r="AG22" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH22" t="s" s="2">
         <v>42</v>
       </c>
@@ -3441,10 +3597,10 @@
         <v>42</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>175</v>
+        <v>42</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>176</v>
+        <v>42</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>42</v>
@@ -3452,9 +3608,11 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="C23" t="s" s="2">
         <v>42</v>
       </c>
@@ -3472,16 +3630,14 @@
         <v>42</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="K23" s="2"/>
       <c r="L23" t="s" s="2">
-        <v>179</v>
+        <v>142</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3508,11 +3664,13 @@
         <v>42</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="X23" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y23" t="s" s="2">
-        <v>180</v>
+        <v>42</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>42</v>
@@ -3529,11 +3687,15 @@
       <c r="AD23" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE23" s="2"/>
+      <c r="AE23" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="AF23" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG23" s="2"/>
+      <c r="AG23" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH23" t="s" s="2">
         <v>42</v>
       </c>
@@ -3541,10 +3703,10 @@
         <v>42</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>181</v>
+        <v>42</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>182</v>
+        <v>42</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>42</v>
@@ -3552,15 +3714,17 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="B24" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="C24" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>49</v>
@@ -3572,20 +3736,16 @@
         <v>42</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="K24" t="s" s="2">
-        <v>185</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="K24" s="2"/>
       <c r="L24" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>42</v>
@@ -3634,13 +3794,13 @@
         <v>42</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>183</v>
+        <v>101</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>42</v>
@@ -3649,10 +3809,10 @@
         <v>42</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>188</v>
+        <v>42</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>189</v>
+        <v>42</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>42</v>
@@ -3660,11 +3820,13 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="B25" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="C25" t="s" s="2">
-        <v>191</v>
+        <v>42</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -3680,16 +3842,14 @@
         <v>42</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="K25" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="K25" s="2"/>
       <c r="L25" t="s" s="2">
-        <v>194</v>
+        <v>148</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3739,11 +3899,15 @@
       <c r="AD25" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE25" s="2"/>
+      <c r="AE25" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="AF25" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG25" s="2"/>
+      <c r="AG25" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH25" t="s" s="2">
         <v>42</v>
       </c>
@@ -3751,10 +3915,10 @@
         <v>42</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>195</v>
+        <v>42</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>196</v>
+        <v>42</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>42</v>
@@ -3762,43 +3926,41 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>197</v>
+        <v>149</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>198</v>
+        <v>94</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>199</v>
+        <v>95</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>42</v>
       </c>
@@ -3845,11 +4007,15 @@
       <c r="AD26" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE26" s="2"/>
+      <c r="AE26" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="AF26" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG26" s="2"/>
+      <c r="AG26" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH26" t="s" s="2">
         <v>42</v>
       </c>
@@ -3857,29 +4023,29 @@
         <v>42</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>204</v>
+        <v>42</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>205</v>
+        <v>42</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>42</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>206</v>
+        <v>153</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>207</v>
+        <v>42</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>42</v>
@@ -3891,13 +4057,13 @@
         <v>50</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>208</v>
+        <v>154</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>209</v>
+        <v>155</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>210</v>
+        <v>156</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3959,10 +4125,10 @@
         <v>42</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>211</v>
+        <v>157</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>212</v>
+        <v>158</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>42</v>
@@ -3970,18 +4136,18 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>213</v>
+        <v>159</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>214</v>
+        <v>42</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>42</v>
@@ -3993,13 +4159,13 @@
         <v>50</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>215</v>
+        <v>160</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>216</v>
+        <v>161</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>217</v>
+        <v>162</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4058,7 +4224,7 @@
         <v>42</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>218</v>
+        <v>42</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>42</v>
@@ -4067,23 +4233,23 @@
         <v>42</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>219</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>220</v>
+        <v>164</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>42</v>
+        <v>165</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>42</v>
@@ -4092,16 +4258,16 @@
         <v>42</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>221</v>
+        <v>166</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>222</v>
+        <v>167</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>223</v>
+        <v>168</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4151,15 +4317,11 @@
       <c r="AD29" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE29" t="s" s="2">
-        <v>224</v>
-      </c>
+      <c r="AE29" s="2"/>
       <c r="AF29" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG29" t="s" s="2">
-        <v>49</v>
-      </c>
+      <c r="AG29" s="2"/>
       <c r="AH29" t="s" s="2">
         <v>42</v>
       </c>
@@ -4173,16 +4335,16 @@
         <v>42</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>225</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>226</v>
+        <v>169</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>94</v>
+        <v>170</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4198,21 +4360,23 @@
         <v>42</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>95</v>
+        <v>171</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>96</v>
+        <v>172</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>227</v>
+        <v>173</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>42</v>
       </c>
@@ -4259,15 +4423,11 @@
       <c r="AD30" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE30" t="s" s="2">
-        <v>228</v>
-      </c>
+      <c r="AE30" s="2"/>
       <c r="AF30" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG30" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG30" s="2"/>
       <c r="AH30" t="s" s="2">
         <v>42</v>
       </c>
@@ -4281,46 +4441,46 @@
         <v>42</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>225</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>229</v>
+        <v>177</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>230</v>
+        <v>178</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>95</v>
+        <v>154</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>112</v>
+        <v>179</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>42</v>
       </c>
@@ -4367,15 +4527,11 @@
       <c r="AD31" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE31" t="s" s="2">
-        <v>232</v>
-      </c>
+      <c r="AE31" s="2"/>
       <c r="AF31" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG31" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG31" s="2"/>
       <c r="AH31" t="s" s="2">
         <v>42</v>
       </c>
@@ -4389,12 +4545,12 @@
         <v>42</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>92</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>233</v>
+        <v>182</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4411,22 +4567,26 @@
         <v>42</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>234</v>
+        <v>68</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>235</v>
+        <v>183</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>42</v>
       </c>
@@ -4450,13 +4610,13 @@
         <v>42</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>42</v>
+        <v>187</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>42</v>
+        <v>188</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>42</v>
+        <v>189</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>42</v>
@@ -4485,26 +4645,26 @@
         <v>42</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>237</v>
+        <v>190</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>42</v>
+        <v>191</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>238</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>239</v>
+        <v>192</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>49</v>
@@ -4513,23 +4673,23 @@
         <v>42</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>240</v>
+        <v>68</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>241</v>
+        <v>194</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>242</v>
+        <v>195</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>243</v>
+        <v>196</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>42</v>
@@ -4554,13 +4714,13 @@
         <v>42</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>42</v>
+        <v>187</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>42</v>
+        <v>197</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>42</v>
+        <v>198</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>42</v>
@@ -4583,24 +4743,24 @@
       </c>
       <c r="AG33" s="2"/>
       <c r="AH33" t="s" s="2">
-        <v>244</v>
+        <v>42</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>42</v>
+        <v>199</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>245</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>246</v>
+        <v>200</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4608,7 +4768,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>49</v>
@@ -4620,16 +4780,16 @@
         <v>42</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>163</v>
+        <v>201</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>247</v>
+        <v>202</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>248</v>
+        <v>203</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4656,13 +4816,13 @@
         <v>42</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>249</v>
+        <v>205</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>250</v>
+        <v>206</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>42</v>
@@ -4679,11 +4839,15 @@
       <c r="AD34" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE34" s="2"/>
+      <c r="AE34" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="AF34" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG34" s="2"/>
+      <c r="AG34" t="s" s="2">
+        <v>49</v>
+      </c>
       <c r="AH34" t="s" s="2">
         <v>42</v>
       </c>
@@ -4691,10 +4855,10 @@
         <v>42</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>42</v>
+        <v>199</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>251</v>
+        <v>207</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>42</v>
@@ -4702,7 +4866,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>252</v>
+        <v>208</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4725,17 +4889,15 @@
         <v>50</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>253</v>
+        <v>68</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>254</v>
+        <v>209</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>42</v>
@@ -4760,13 +4922,13 @@
         <v>42</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>42</v>
+        <v>187</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>42</v>
+        <v>212</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>42</v>
@@ -4783,15 +4945,11 @@
       <c r="AD35" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE35" t="s" s="2">
-        <v>252</v>
-      </c>
+      <c r="AE35" s="2"/>
       <c r="AF35" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG35" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG35" s="2"/>
       <c r="AH35" t="s" s="2">
         <v>42</v>
       </c>
@@ -4799,10 +4957,10 @@
         <v>42</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>257</v>
+        <v>213</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>258</v>
+        <v>214</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>42</v>
@@ -4810,7 +4968,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>259</v>
+        <v>215</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4821,7 +4979,7 @@
         <v>40</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>42</v>
@@ -4833,13 +4991,13 @@
         <v>50</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>163</v>
+        <v>201</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>260</v>
+        <v>216</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>261</v>
+        <v>217</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -4866,13 +5024,11 @@
         <v>42</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="X36" s="2"/>
       <c r="Y36" t="s" s="2">
-        <v>263</v>
+        <v>218</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>42</v>
@@ -4889,15 +5045,11 @@
       <c r="AD36" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE36" t="s" s="2">
-        <v>259</v>
-      </c>
+      <c r="AE36" s="2"/>
       <c r="AF36" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG36" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG36" s="2"/>
       <c r="AH36" t="s" s="2">
         <v>42</v>
       </c>
@@ -4905,10 +5057,10 @@
         <v>42</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>42</v>
@@ -4916,7 +5068,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>265</v>
+        <v>221</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4924,10 +5076,10 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>42</v>
@@ -4939,15 +5091,17 @@
         <v>50</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>266</v>
+        <v>222</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>267</v>
+        <v>223</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>42</v>
@@ -4995,11 +5149,15 @@
       <c r="AD37" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE37" s="2"/>
+      <c r="AE37" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="AF37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG37" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>49</v>
+      </c>
       <c r="AH37" t="s" s="2">
         <v>42</v>
       </c>
@@ -5007,22 +5165,22 @@
         <v>42</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>42</v>
+        <v>227</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>269</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>270</v>
+        <v>228</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>42</v>
+        <v>229</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5038,16 +5196,16 @@
         <v>42</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>271</v>
+        <v>231</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>272</v>
+        <v>232</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5109,10 +5267,10 @@
         <v>42</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>42</v>
+        <v>233</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>42</v>
+        <v>234</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>42</v>
@@ -5120,18 +5278,18 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>273</v>
+        <v>235</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>42</v>
+        <v>236</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>42</v>
@@ -5140,19 +5298,23 @@
         <v>42</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>274</v>
+        <v>237</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>275</v>
+        <v>238</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>42</v>
       </c>
@@ -5211,10 +5373,10 @@
         <v>42</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>42</v>
+        <v>242</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>42</v>
+        <v>243</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>42</v>
@@ -5222,18 +5384,18 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>277</v>
+        <v>244</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>42</v>
+        <v>245</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>42</v>
@@ -5242,16 +5404,16 @@
         <v>42</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5313,10 +5475,10 @@
         <v>42</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>42</v>
+        <v>249</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>42</v>
+        <v>250</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>42</v>
@@ -5324,18 +5486,18 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>42</v>
@@ -5344,20 +5506,18 @@
         <v>42</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>42</v>
@@ -5414,7 +5574,7 @@
         <v>42</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>42</v>
+        <v>256</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>42</v>
@@ -5423,11 +5583,1371 @@
         <v>42</v>
       </c>
       <c r="AL41" t="s" s="2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="42" hidden="true">
+      <c r="A42" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="43" hidden="true">
+      <c r="A43" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="44" hidden="true">
+      <c r="A44" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" hidden="true">
+      <c r="A45" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE45" s="2"/>
+      <c r="AF45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG45" s="2"/>
+      <c r="AH45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="46" hidden="true">
+      <c r="A46" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE46" s="2"/>
+      <c r="AF46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG46" s="2"/>
+      <c r="AH46" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="47" hidden="true">
+      <c r="A47" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="X47" t="s" s="2">
         <v>287</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE47" s="2"/>
+      <c r="AF47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG47" s="2"/>
+      <c r="AH47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" hidden="true">
+      <c r="A48" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" hidden="true">
+      <c r="A49" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="51" hidden="true">
+      <c r="A51" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE51" s="2"/>
+      <c r="AF51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG51" s="2"/>
+      <c r="AH51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE52" s="2"/>
+      <c r="AF52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG52" s="2"/>
+      <c r="AH52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE53" s="2"/>
+      <c r="AF53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG53" s="2"/>
+      <c r="AH53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE54" s="2"/>
+      <c r="AF54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG54" s="2"/>
+      <c r="AH54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>325</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL41">
+  <autoFilter ref="A1:AL54">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5437,7 +6957,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI40">
+  <conditionalFormatting sqref="A2:AI53">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
